--- a/Alexandru_Stanciu/Lab7_SOAC.xlsx
+++ b/Alexandru_Stanciu/Lab7_SOAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOAC\repo\SOAC_23-24\Alexandru_Stanciu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC69309-1281-4D38-B2EF-9F0F48297D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2C6DC7-911C-400A-A037-644C1975414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F7E30A7-55AC-4AEE-B370-8F260DA3CEBF}"/>
   </bookViews>
